--- a/templates/ведомость_курсанты_сводная_невыносимые_предметы.xlsx
+++ b/templates/ведомость_курсанты_сводная_невыносимые_предметы.xlsx
@@ -16,6 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="EmptyRows">Сводная!$A$11</definedName>
+    <definedName name="OCRCode">Сводная!$I$4</definedName>
     <definedName name="RegisterDate">Сводная!$A$5</definedName>
     <definedName name="SoldierList">Сводная!$A$10</definedName>
     <definedName name="ИмяПодразделения">Сводная!$A$3</definedName>
@@ -317,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -379,6 +380,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,7 +668,7 @@
   <dimension ref="A1:I960"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,15 +721,15 @@
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
@@ -11276,13 +11280,12 @@
       <c r="I960" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A8:A9"/>

--- a/templates/ведомость_курсанты_сводная_невыносимые_предметы.xlsx
+++ b/templates/ведомость_курсанты_сводная_невыносимые_предметы.xlsx
@@ -48,9 +48,6 @@
     <t>Фамилия Имя Отчество</t>
   </si>
   <si>
-    <t>Оценка на котрольных занятиях</t>
-  </si>
-  <si>
     <t>ОВП</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>Командир роты: капитан               Королев С.Н.</t>
+  </si>
+  <si>
+    <t>Оценка на контрольных занятиях</t>
   </si>
 </sst>
 </file>
@@ -348,6 +348,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -380,9 +383,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,7 +668,7 @@
   <dimension ref="A1:I960"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,80 +682,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>11</v>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>8</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -769,56 +769,56 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24" t="s">
+      <c r="H8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="I8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>7</v>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="20"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
@@ -894,17 +894,17 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>17</v>
+      <c r="A17" s="19" t="s">
+        <v>16</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>

--- a/templates/ведомость_курсанты_сводная_невыносимые_предметы.xlsx
+++ b/templates/ведомость_курсанты_сводная_невыносимые_предметы.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pronko\prj\Grader\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YUKI\3_Вирусы\Pronko_2\prj\Grader\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -668,7 +668,7 @@
   <dimension ref="A1:I960"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11295,6 +11295,7 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
